--- a/BackEndFlask/Functions/sample_files/sample_roster.xlsx
+++ b/BackEndFlask/Functions/sample_files/sample_roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bdmyers/rubricapp/rubricapp/sample_file/rosters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisgodinez/Documents/Junior_Fall/Soft-Stud/rubricapp/BackEndFlask/Functions/sample_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6099A8-A8B0-E540-B596-E9DDB427EDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E3832-1304-8A4F-9AB6-9ECF6F887914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="1900" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="8740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
   <si>
     <t>Student</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -304,20 +295,41 @@
     <t>rubricapp-c39@mailinator.com</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>TA1@gmail.com</t>
+  </si>
+  <si>
+    <t>TA2@gmail.com</t>
+  </si>
+  <si>
+    <t>TA3@gmail.com</t>
+  </si>
+  <si>
+    <t>TA Email</t>
+  </si>
+  <si>
+    <t>Student Email</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Godinez, TA1</t>
+  </si>
+  <si>
+    <t>Godinez, TA2</t>
+  </si>
+  <si>
+    <t>Godinez, TA3</t>
+  </si>
+  <si>
+    <t>team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,22 +342,32 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,590 +691,718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D1048576" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1294,8 +1447,48 @@
     <hyperlink ref="B39" r:id="rId38" xr:uid="{777DC310-47A7-F844-9287-A88FA955F58F}"/>
     <hyperlink ref="B40" r:id="rId39" xr:uid="{F95CA6CF-A211-9146-98A9-2E10F3044185}"/>
     <hyperlink ref="B41" r:id="rId40" xr:uid="{70802BBC-4B76-164B-8138-3AA4CB62C623}"/>
+    <hyperlink ref="E2" r:id="rId41" xr:uid="{2BE65486-E158-EB4C-8154-A454037A4B67}"/>
+    <hyperlink ref="E3" r:id="rId42" xr:uid="{9748ECEE-16B6-7A43-8B03-15CB372B60B7}"/>
+    <hyperlink ref="E4" r:id="rId43" xr:uid="{8000B2BB-418D-D24A-A3F5-4550AD2700EB}"/>
+    <hyperlink ref="E5" r:id="rId44" xr:uid="{7AD98591-5C71-FB4D-A06A-907B8521D93D}"/>
+    <hyperlink ref="E6" r:id="rId45" xr:uid="{27A93492-567F-5249-9351-A914F6C9BA5A}"/>
+    <hyperlink ref="E7" r:id="rId46" xr:uid="{45B3454C-BDF1-B34C-86B1-C98499F7C6B1}"/>
+    <hyperlink ref="E8" r:id="rId47" xr:uid="{ED6EBF40-6982-1E49-8DF5-26F665CD6C4A}"/>
+    <hyperlink ref="E9" r:id="rId48" xr:uid="{3C431829-9DED-DF4B-A352-2376C891DCD0}"/>
+    <hyperlink ref="E10" r:id="rId49" xr:uid="{97177179-0A20-0945-8A8A-43C928286F97}"/>
+    <hyperlink ref="E11" r:id="rId50" xr:uid="{4A8768E5-8BA5-B64C-ABA8-62CB433975E8}"/>
+    <hyperlink ref="E12" r:id="rId51" xr:uid="{D83424CF-FBA1-D34A-8880-4EA2DF0EE770}"/>
+    <hyperlink ref="E13" r:id="rId52" xr:uid="{8795C176-CC51-854A-AC43-47F50693429D}"/>
+    <hyperlink ref="E14" r:id="rId53" xr:uid="{12485549-B696-114C-8F61-A2309E9064CC}"/>
+    <hyperlink ref="E15" r:id="rId54" xr:uid="{37F3B86D-397B-8744-9B06-1F23B7E6A8F7}"/>
+    <hyperlink ref="E16" r:id="rId55" xr:uid="{2D2EA299-E7D7-0A4A-9B0E-DE1650093A53}"/>
+    <hyperlink ref="E17" r:id="rId56" xr:uid="{D6132DB1-FAF6-9840-A178-BA74F3F6F22E}"/>
+    <hyperlink ref="E18" r:id="rId57" xr:uid="{7053661A-EB7E-0E49-9E3F-83E60A82ED28}"/>
+    <hyperlink ref="E19" r:id="rId58" xr:uid="{9D956665-88EF-3F43-B390-BA7EE3DB5A50}"/>
+    <hyperlink ref="E20" r:id="rId59" xr:uid="{337CFBE7-3EC4-7541-A16D-E30DBB6D1798}"/>
+    <hyperlink ref="E21" r:id="rId60" xr:uid="{CB68D2B4-12CF-F742-9C3E-DE80BD32F712}"/>
+    <hyperlink ref="E22" r:id="rId61" xr:uid="{F3C713AD-3780-3A42-9E74-45E80A683D86}"/>
+    <hyperlink ref="E23" r:id="rId62" xr:uid="{0C2B8103-7BD7-D342-9404-39778A334F79}"/>
+    <hyperlink ref="E24" r:id="rId63" xr:uid="{A18FDC70-7993-FC42-967B-A2F6AB9CC230}"/>
+    <hyperlink ref="E25" r:id="rId64" xr:uid="{688D9BCB-BA52-C44B-8E4E-8E00378E505D}"/>
+    <hyperlink ref="E26" r:id="rId65" xr:uid="{4EFA63E7-D2B7-DC48-8DF8-D0957DAF7E7A}"/>
+    <hyperlink ref="E27" r:id="rId66" xr:uid="{C8805F5F-CD78-F546-B9B8-0C998AAEA854}"/>
+    <hyperlink ref="E28" r:id="rId67" xr:uid="{2389B205-97B5-D442-BAAF-A48514CB7A0D}"/>
+    <hyperlink ref="E29" r:id="rId68" xr:uid="{1970CBEB-8402-C041-A6A9-7A9E1FAFD561}"/>
+    <hyperlink ref="E30" r:id="rId69" xr:uid="{BB6628BF-9DE5-D344-BF40-ABA81A6F982B}"/>
+    <hyperlink ref="E31" r:id="rId70" xr:uid="{960A2EBE-C3BF-1F40-A052-C1564F178BCA}"/>
+    <hyperlink ref="E32" r:id="rId71" xr:uid="{1C2E051B-6515-6941-BAA8-2FCE6425238C}"/>
+    <hyperlink ref="E33" r:id="rId72" xr:uid="{F354FAB6-5C86-7945-8148-1B263D471A49}"/>
+    <hyperlink ref="E34" r:id="rId73" xr:uid="{BE44743C-3303-4D4D-AE3C-07CD757BC4E1}"/>
+    <hyperlink ref="E35" r:id="rId74" xr:uid="{550F8D9E-51F7-8E4C-B1F7-66D47CCF061D}"/>
+    <hyperlink ref="E36" r:id="rId75" xr:uid="{39033A06-4796-DC4F-A611-038ECEB0B355}"/>
+    <hyperlink ref="E37" r:id="rId76" xr:uid="{581DF1A4-9D8D-0C45-8D0C-9D85EFFE1126}"/>
+    <hyperlink ref="E38" r:id="rId77" xr:uid="{27C24458-1154-6C40-A961-2A8B5708D624}"/>
+    <hyperlink ref="E39" r:id="rId78" xr:uid="{F665E95F-39E8-6647-927B-BDF2D90316BE}"/>
+    <hyperlink ref="E40" r:id="rId79" xr:uid="{6D230478-2448-AF4D-A9EE-79578EB0225D}"/>
+    <hyperlink ref="E41" r:id="rId80" xr:uid="{0CCBED98-191F-C14A-A9C3-6CB693AF254C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId81"/>
 </worksheet>
 </file>
--- a/BackEndFlask/Functions/sample_files/sample_roster.xlsx
+++ b/BackEndFlask/Functions/sample_files/sample_roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisgodinez/Documents/Junior_Fall/Soft-Stud/rubricapp/BackEndFlask/Functions/sample_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E3832-1304-8A4F-9AB6-9ECF6F887914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C1EE3-F2D6-0A43-984C-6577238DDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="8740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="1900" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -693,15 +693,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
